--- a/CloudMonitor5G-2.0/src/main/resources/templates/数据概览.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/数据概览.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiyan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A9F4B-840B-4648-9016-13EBB1487AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据校验概览" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>FR成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,94 +135,175 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${item.KK02}</t>
-  </si>
-  <si>
-    <t>${item.KK03}</t>
-  </si>
-  <si>
-    <t>${item.KK04}</t>
-  </si>
-  <si>
-    <t>${item.KK05}</t>
-  </si>
-  <si>
-    <t>${item.KK06}</t>
-  </si>
-  <si>
-    <t>${item.KK07}</t>
-  </si>
-  <si>
-    <t>${item.KK08}</t>
-  </si>
-  <si>
-    <t>${item.KK09}</t>
-  </si>
-  <si>
-    <t>${item.KK10}</t>
-  </si>
-  <si>
-    <t>${item.KK11}</t>
-  </si>
-  <si>
-    <t>${item.KK12}</t>
-  </si>
-  <si>
-    <t>${item.KK13}</t>
-  </si>
-  <si>
-    <t>${item.KK14}</t>
-  </si>
-  <si>
-    <t>${item.KK15}</t>
-  </si>
-  <si>
-    <t>${item.KK16}</t>
-  </si>
-  <si>
-    <t>${item.KK17}</t>
-  </si>
-  <si>
-    <t>${item.KK18}</t>
-  </si>
-  <si>
-    <t>${item.KK19}</t>
-  </si>
-  <si>
-    <t>${item.KK20}</t>
-  </si>
-  <si>
-    <t>${item.KK21}</t>
-  </si>
-  <si>
-    <t>${item.KK22}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.KK23}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.KK01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.LOG_NAME}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5G 网络覆盖率</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.log_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS解析时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS解析成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP建链时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP建链成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP重传率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP响应时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP响应成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本加载时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频加载时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频加载时延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.kk01}</t>
+  </si>
+  <si>
+    <t>${item.kk02}</t>
+  </si>
+  <si>
+    <t>${item.kk03}</t>
+  </si>
+  <si>
+    <t>${item.kk04}</t>
+  </si>
+  <si>
+    <t>${item.kk05}</t>
+  </si>
+  <si>
+    <t>${item.kk06}</t>
+  </si>
+  <si>
+    <t>${item.kk07}</t>
+  </si>
+  <si>
+    <t>${item.kk08}</t>
+  </si>
+  <si>
+    <t>${item.kk09}</t>
+  </si>
+  <si>
+    <t>${item.kk10}</t>
+  </si>
+  <si>
+    <t>${item.kk11}</t>
+  </si>
+  <si>
+    <t>${item.kk12}</t>
+  </si>
+  <si>
+    <t>${item.kk13}</t>
+  </si>
+  <si>
+    <t>${item.kk14}</t>
+  </si>
+  <si>
+    <t>${item.kk15}</t>
+  </si>
+  <si>
+    <t>${item.kk16}</t>
+  </si>
+  <si>
+    <t>${item.kk17}</t>
+  </si>
+  <si>
+    <t>${item.kk18}</t>
+  </si>
+  <si>
+    <t>${item.kk19}</t>
+  </si>
+  <si>
+    <t>${item.kk20}</t>
+  </si>
+  <si>
+    <t>${item.kk21}</t>
+  </si>
+  <si>
+    <t>${item.kk22}</t>
+  </si>
+  <si>
+    <t>${item.kk23}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.kf11}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.kf12}</t>
+  </si>
+  <si>
+    <t>${item.kf13}</t>
+  </si>
+  <si>
+    <t>${item.kf14}</t>
+  </si>
+  <si>
+    <t>${item.kf15}</t>
+  </si>
+  <si>
+    <t>${item.kf16}</t>
+  </si>
+  <si>
+    <t>${item.kf17}</t>
+  </si>
+  <si>
+    <t>${item.kf21}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.kf22}</t>
+  </si>
+  <si>
+    <t>${item.kf23}</t>
+  </si>
+  <si>
+    <t>${item.kf24}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00&quot;%&quot;"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -275,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -335,6 +422,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -342,7 +466,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +476,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,13 +500,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,64 +776,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" activeCellId="3" sqref="K4 L4 O4 S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="8.88671875" style="2"/>
+    <col min="28" max="29" width="8.88671875" style="2"/>
+    <col min="31" max="31" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="5" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -765,93 +919,160 @@
       <c r="X2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>37</v>
+      <c r="K4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="L1:Q1"/>
@@ -860,19 +1081,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
